--- a/Sample size strata diagnostics.xlsx
+++ b/Sample size strata diagnostics.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.386084109621574</v>
+        <v>1.386</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.116686703538892</v>
+        <v>1.117</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.234995116418129</v>
+        <v>1.235</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>1.336904373081132</v>
+        <v>1.337</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.8711337372313677</v>
+        <v>0.871</v>
       </c>
     </row>
   </sheetData>

--- a/Sample size strata diagnostics.xlsx
+++ b/Sample size strata diagnostics.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.386</v>
+        <v>1.413</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.117</v>
+        <v>1.183</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.235</v>
+        <v>1.251</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>1.337</v>
+        <v>1.415</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.871</v>
+        <v>0.856</v>
       </c>
     </row>
   </sheetData>
